--- a/market_data/swap_data.xlsx
+++ b/market_data/swap_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project_FICC_Quant\market_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917C6D94-9861-49C0-B693-B401E7BD18EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290"/>
+    <workbookView xWindow="5160" yWindow="-18330" windowWidth="18720" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,23 +154,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -201,10 +202,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -212,7 +213,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,25 +773,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -804,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -818,7 +819,7 @@
         <v>0.22538</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -832,7 +833,7 @@
         <v>99.724999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -846,7 +847,7 @@
         <v>99.784999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -860,7 +861,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -874,7 +875,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -888,7 +889,7 @@
         <v>99.78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -902,7 +903,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -919,7 +920,7 @@
       <c r="F9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -936,7 +937,7 @@
       <c r="F10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -953,7 +954,7 @@
       <c r="F11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -970,7 +971,7 @@
       <c r="F12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -987,7 +988,7 @@
       <c r="F13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1005,7 @@
       <c r="F14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1022,7 @@
       <c r="F15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1038,7 +1039,7 @@
       <c r="F16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1056,7 @@
       <c r="F17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1073,7 @@
       <c r="F18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1089,7 +1090,7 @@
       <c r="F19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1106,7 +1107,7 @@
       <c r="F20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1123,7 +1124,7 @@
       <c r="F21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1140,7 +1141,7 @@
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1157,7 +1158,7 @@
       <c r="F23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1174,7 +1175,7 @@
       <c r="F24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>30</v>
       </c>
